--- a/projet_SID32/sample_files/product_example.xlsx
+++ b/projet_SID32/sample_files/product_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,141 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viande bovine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Viande bovine fraîche</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PT04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lait</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lait frais</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PT05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pain traditionnel</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PT01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Poulet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Poulet entier</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PT04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oignons</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Oignons frais</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PT02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
